--- a/medicine/Enfance/Marie-Francine_Hébert/Marie-Francine_Hébert.xlsx
+++ b/medicine/Enfance/Marie-Francine_Hébert/Marie-Francine_Hébert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-Francine_H%C3%A9bert</t>
+          <t>Marie-Francine_Hébert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Francine Hébert est une écrivaine québécoise, autrice de littérature jeunesse et scénariste née à Montréal le 24 mars 1943. Elle commence sa carrière d'écrivaine dans les années 1970 et devient une pionnière de la démocratisation de la littérature pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-Francine_H%C3%A9bert</t>
+          <t>Marie-Francine_Hébert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Francine Hébert est née à Montréal, le 24 mars 1943[1]. Elle est une pionnière de la littérature jeunesse au Québec. Elle a fortement contribué à l'émergence et la démocratisation de cette littérature et est considérée, par Julie Pelletier du magazine littéraire Nuit blanche, comme « l'une des écrivaines les plus reconnues au Québec en littérature jeunesse »[2]. Elle a commencé sa carrière d'écrivaine dans les années 1970 alors que la littérature jeunesse était encore à un stade embryonnaire au Québec[3].
-Très concernée par les questions d'éthiques, de pédagogie, de développement de l'enfant, elle a écrit ses premières pièces de théâtre pour enfant en réaction aux « gentilles histoires de fées »[3]  qu'il se faisait à l'époque. Elle avait le désir de convoquer, dans ses livres, des sujets comme «la vie», «la mort», «l'amour», voire le «sexe» : les grands thèmes de la littérature qui, selon elle, montreraient une vision réaliste aux enfants au lieu de leur présenter une vision édulcorée qui les préserverait dans l'innocence[3]. C'est sans détour qu'elle traite ces thèmes « avec finesses et poésie »[4] dans Le ciel tombe à côté, entre autres, dans lequel deux sœurs sont témoins involontairement d'une scène d'agression[5].
-En 1979, elle rencontre Bertrand Gauthier, le fondateur des Éditions La courte échelle, avec qui elle développera une relation amicale et professionnelle. C'est notamment à ce moment qu'elle fait ses débuts avec La courte échelle[3]. Leur mission était simple : « Prouver aux jeunes que la lecture pouvait non seulement les concerner, mais aussi les passionner »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Francine Hébert est née à Montréal, le 24 mars 1943. Elle est une pionnière de la littérature jeunesse au Québec. Elle a fortement contribué à l'émergence et la démocratisation de cette littérature et est considérée, par Julie Pelletier du magazine littéraire Nuit blanche, comme « l'une des écrivaines les plus reconnues au Québec en littérature jeunesse ». Elle a commencé sa carrière d'écrivaine dans les années 1970 alors que la littérature jeunesse était encore à un stade embryonnaire au Québec.
+Très concernée par les questions d'éthiques, de pédagogie, de développement de l'enfant, elle a écrit ses premières pièces de théâtre pour enfant en réaction aux « gentilles histoires de fées »  qu'il se faisait à l'époque. Elle avait le désir de convoquer, dans ses livres, des sujets comme «la vie», «la mort», «l'amour», voire le «sexe» : les grands thèmes de la littérature qui, selon elle, montreraient une vision réaliste aux enfants au lieu de leur présenter une vision édulcorée qui les préserverait dans l'innocence. C'est sans détour qu'elle traite ces thèmes « avec finesses et poésie » dans Le ciel tombe à côté, entre autres, dans lequel deux sœurs sont témoins involontairement d'une scène d'agression.
+En 1979, elle rencontre Bertrand Gauthier, le fondateur des Éditions La courte échelle, avec qui elle développera une relation amicale et professionnelle. C'est notamment à ce moment qu'elle fait ses débuts avec La courte échelle. Leur mission était simple : « Prouver aux jeunes que la lecture pouvait non seulement les concerner, mais aussi les passionner ».
 Ses livres ont été traduits dans plusieurs langues telles que l'anglais, l'allemand, l'italien, l'espagnol, le grec, etc.
-Dans sa carrière, elle a participé à plusieurs Salons du livre et gagné plusieurs prix littéraires pour la jeunesse, notamment le Prix Alvine-Bélisle[6], le Prix du Gouverneur général : littérature jeunesse de langue française, ainsi que le Prix du livre M. Christie[1].
+Dans sa carrière, elle a participé à plusieurs Salons du livre et gagné plusieurs prix littéraires pour la jeunesse, notamment le Prix Alvine-Bélisle, le Prix du Gouverneur général : littérature jeunesse de langue française, ainsi que le Prix du livre M. Christie.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-Francine_H%C3%A9bert</t>
+          <t>Marie-Francine_Hébert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Théâtre
-Une ligne blanche au jambon, Montréal, Léméac, 1974, 90 p.
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une ligne blanche au jambon, Montréal, Léméac, 1974, 90 p.
 Cé tellement «cute» des enfants, Montréal, Éditions Quinze, 1975, 92 p.  (ISBN 0885650069)
 Cé tellement «cute» des enfants, Montréal, Québec/Amérique, 1980, 136 p.  (ISBN 2890370445)
-Oui ou Non, Montréal, VLB, 1988, 96 p.  (ISBN 289005294X)
-Littérature
-Jeunesse
-Le voyage de la vie (avec Darcia Labrosse), Montréal, La courte échelle, 1984, 21 p.  (ISBN 2890210456)
+Oui ou Non, Montréal, VLB, 1988, 96 p.  (ISBN 289005294X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Francine_Hébert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Francine_H%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le voyage de la vie (avec Darcia Labrosse), Montréal, La courte échelle, 1984, 21 p.  (ISBN 2890210456)
 Venir au monde (avec Darcia Labrosse), Montréal, La courte échelle, 1987, 24 p.  (ISBN 2890210677)
 Un monstre dans les céréales (avec Philippe Germain), Montréal, La courte échelle, 1988, 60 p.  (ISBN 2890210847)
 Vive mon corps ! (avec Darcia Labrosse), Montréal, La courte échelle, 1989, 24 p.  (ISBN 2890212262)
@@ -595,56 +651,130 @@
 Je suis là, je suis là (avec Mathilde Cinq-Mars), Montréal, Druide, 2017, 32 p.  (ISBN 9782897113537)
 Dépareillés (avec Geneviève Després), Montréal, Éditions De la bagnole, 2017, 32 p.  (ISBN 9782897141707)
 Chouïa où es-tu ?, Montréal, Planète rebelle, 2017  (ISBN 9782924174777)
-Madame Grisemine et le petit chenapan (avec Mathieu Lampron), Montréal, Éditions De la bagnole, 2019, 32 p.  (ISBN 9782897143190)
-Roman
-L' Âme du fusil (avec Lou Beauchesne), Montréal, Québec/Amérique, 2009, 233 p.  (ISBN 9782764406922)
-Films et télévision
-1979 : Klimbo
+Madame Grisemine et le petit chenapan (avec Mathieu Lampron), Montréal, Éditions De la bagnole, 2019, 32 p.  (ISBN 9782897143190)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Francine_Hébert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Francine_H%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L' Âme du fusil (avec Lou Beauchesne), Montréal, Québec/Amérique, 2009, 233 p.  (ISBN 9782764406922)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie-Francine_Hébert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Francine_H%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Films et télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1979 : Klimbo
 1987 : Iniminimagimo
 2003 : Quatre saisons dans la vie de Ludovic
 2014 :  Nul poisson où aller</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marie-Francine_H%C3%A9bert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie-Francine_Hébert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Francine_H%C3%A9bert</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1988 : finaliste du Prix du Gouverneur général : théâtre de langue française pour Oui ou non[7]
-1988 : lauréate du Prix Alvine-Bélisle pour Venir au monde[1]
-2001 : lauréate du Prix Christie pour Décroche-moi la lune[1]
-2002 : lauréate du Prix Christie pour Mon rayon de soleil[1]
-2003 : lauréate du Prix Christie pour Le ciel tombe à côté[1]
-2003 : lauréate du Prix Christie pour Nul poisson où aller[1]
-2003 : lauréate du Prix Alvine-Bélisle pour Mon rayon de soleil[1]
-2004 : lauréate du Prix Marcel-Couture pour Nul poisson où aller[1]
-2004 : finaliste du Grand prix du livre de Montréal pour Nul poisson où aller[1]
-2004 : finaliste du Prix du Gouverneur général : littérature jeunesse de langue française - texte pour Le ciel tombe à côté[7]
-2013 : lauréate du Prix TD de littérature jeunesse pour Tu me prends en photo[8]
-2017 : lauréate du Prix Raymond-Plante pour Venir au monde[9]
-2018 : en lice pour le prix international Astrid-Lindgren[10]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1988 : finaliste du Prix du Gouverneur général : théâtre de langue française pour Oui ou non
+1988 : lauréate du Prix Alvine-Bélisle pour Venir au monde
+2001 : lauréate du Prix Christie pour Décroche-moi la lune
+2002 : lauréate du Prix Christie pour Mon rayon de soleil
+2003 : lauréate du Prix Christie pour Le ciel tombe à côté
+2003 : lauréate du Prix Christie pour Nul poisson où aller
+2003 : lauréate du Prix Alvine-Bélisle pour Mon rayon de soleil
+2004 : lauréate du Prix Marcel-Couture pour Nul poisson où aller
+2004 : finaliste du Grand prix du livre de Montréal pour Nul poisson où aller
+2004 : finaliste du Prix du Gouverneur général : littérature jeunesse de langue française - texte pour Le ciel tombe à côté
+2013 : lauréate du Prix TD de littérature jeunesse pour Tu me prends en photo
+2017 : lauréate du Prix Raymond-Plante pour Venir au monde
+2018 : en lice pour le prix international Astrid-Lindgren</t>
         </is>
       </c>
     </row>
